--- a/data/qpcr_analysis.xlsx
+++ b/data/qpcr_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colinclarke/Documents/sbo_scrnaseq_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colinclarke/GitHub/multiplexed_CHO_scrnaseq/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28855BE-7A56-9847-ABA5-8962C28D9C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94723F62-5188-2641-9D27-FE9EDD53F15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{38057E24-A8BF-D543-B44F-6E5F0DD4729A}"/>
   </bookViews>
@@ -60,13 +60,13 @@
     <t>Hspa5</t>
   </si>
   <si>
-    <t>Chop</t>
-  </si>
-  <si>
     <t>Atf4</t>
   </si>
   <si>
     <t>sXbp1</t>
+  </si>
+  <si>
+    <t>Ddit3</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,13 +437,13 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
